--- a/Modules/#WirelessPowerP40_Receiver(TS61002+TS80003)/bom.xlsx
+++ b/Modules/#WirelessPowerP40_Receiver(TS61002+TS80003)/bom.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files_of_zhangyu\Project\KICAD\Modules\#WirelessPowerP40_Receiver(TS61002+TS80003)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E6769232-992F-4C55-B419-A264272B15E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5798A205-029B-4024-BE2A-CC5510297B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-315" yWindow="570" windowWidth="15495" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WirelessPowerP40_Receiver" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="172">
   <si>
     <t>1uF 50V</t>
   </si>
@@ -76,9 +87,6 @@
     <t>C32</t>
   </si>
   <si>
-    <t>1nF</t>
-  </si>
-  <si>
     <t>C34</t>
   </si>
   <si>
@@ -103,36 +111,18 @@
     <t>C55</t>
   </si>
   <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
     <t>C56</t>
   </si>
   <si>
-    <t>1uF</t>
-  </si>
-  <si>
     <t>C57</t>
   </si>
   <si>
-    <t>330nF</t>
-  </si>
-  <si>
     <t>C58</t>
   </si>
   <si>
-    <t>22nF</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
     <t>C61</t>
   </si>
   <si>
-    <t>330pF</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -560,13 +550,45 @@
   </si>
   <si>
     <t>总价</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1nF 50V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1uF 25V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>22nF 50V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uF 50V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>330nF 25V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>330pF 50V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1uH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7uF 25V</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1532,11 +1554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1549,25 +1571,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1575,13 +1597,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1596,13 +1618,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -1617,13 +1639,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1644,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -1659,13 +1681,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -1680,13 +1702,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -1701,13 +1723,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1728,7 +1750,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -1743,13 +1765,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -1764,13 +1786,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1791,7 +1813,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1812,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -1833,7 +1855,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -1851,10 +1873,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1869,13 +1891,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -1890,13 +1912,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -1911,13 +1933,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -1932,13 +1954,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -1953,13 +1975,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -1974,13 +1996,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1995,13 +2017,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -2016,13 +2038,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -2037,13 +2059,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -2058,13 +2080,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -2079,13 +2101,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -2100,13 +2122,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E27">
         <v>20</v>
@@ -2121,13 +2143,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -2142,13 +2164,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -2163,13 +2185,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E30">
         <v>10</v>
@@ -2184,13 +2206,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -2205,13 +2227,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -2226,13 +2248,13 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -2247,13 +2269,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -2268,13 +2290,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -2289,13 +2311,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -2310,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -2331,13 +2353,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -2352,13 +2374,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -2373,13 +2395,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -2394,13 +2416,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -2415,13 +2437,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -2436,13 +2458,13 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -2457,13 +2479,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -2478,13 +2500,13 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -2499,13 +2521,13 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -2520,13 +2542,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -2541,13 +2563,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -2562,13 +2584,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -2583,13 +2605,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -2604,13 +2626,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -2625,13 +2647,13 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -2646,13 +2668,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E53">
         <v>100</v>
@@ -2667,13 +2689,13 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -2688,13 +2710,13 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E55">
         <v>100</v>
@@ -2709,13 +2731,13 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E56">
         <v>100</v>
@@ -2730,13 +2752,13 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -2751,13 +2773,13 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -2772,13 +2794,13 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E59">
         <v>20</v>
@@ -2793,13 +2815,13 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E60">
         <v>20</v>
@@ -2814,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E61">
         <v>20</v>
@@ -2835,13 +2857,13 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E62">
         <v>20</v>
@@ -2856,13 +2878,13 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -2877,13 +2899,13 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E64">
         <v>10</v>
@@ -2898,13 +2920,13 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E65">
         <v>10</v>
@@ -2919,13 +2941,13 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E66">
         <v>20</v>
@@ -2940,13 +2962,13 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -2961,13 +2983,13 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -2982,13 +3004,13 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E69">
         <v>5</v>
@@ -3003,13 +3025,13 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -3024,13 +3046,13 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E71">
         <v>10</v>
@@ -3045,13 +3067,13 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E72">
         <v>5</v>
@@ -3066,10 +3088,10 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>5</v>
